--- a/Exercice 1/Exercice 1.xlsx
+++ b/Exercice 1/Exercice 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\Divers\Documents\Ecoles\UQAC\workspace\TP3-Opti\Exercice 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB869DC3-80DD-4021-871E-CD1787611E10}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD94C9B-AE7B-4738-9B0A-74F7E461DC01}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1" xr2:uid="{7646A11E-647B-4A1D-A76B-BF8D7F4AF043}"/>
   </bookViews>
@@ -141,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -513,11 +513,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -530,15 +584,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,7 +593,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -580,6 +624,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,76 +653,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1013,29 +1009,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="17">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -1045,12 +1041,12 @@
       <c r="C3" s="2">
         <v>0.6</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="18">
         <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
       <c r="B4" s="1">
@@ -1060,12 +1056,12 @@
       <c r="C4" s="1">
         <v>0.2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
       <c r="B5" s="1">
@@ -1075,53 +1071,53 @@
       <c r="C5" s="1">
         <v>0.1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="11">
         <v>6</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <f>A6/60</f>
         <v>0.1</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <v>0.1</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="18">
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="14">
         <f>1/B8</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="14">
         <v>4</v>
       </c>
     </row>
@@ -1138,7 +1134,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,59 +1152,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="L1" s="36" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="L1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="12">
+      <c r="M1" s="37">
         <f ca="1">COUNTIF(B3:B52, "&gt;= 4")</f>
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="38">
         <f ca="1">COUNTIF(C3:C52, "&gt;0")</f>
         <v>0</v>
       </c>
@@ -1217,7 +1213,7 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="17">
         <f ca="1">EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>0.16548211161078419</v>
       </c>
@@ -1229,29 +1225,29 @@
         <f ca="1">IF(E3 &lt; Données!$D$3, Données!$B$3, IF(E3 &lt; Données!$D$4, Données!$B$4, IF(E3 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="18">
         <f ca="1">RAND()</f>
         <v>5.9179505914919495E-2</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="25" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B3, 1), ":", QUOTIENT((B3-QUOTIENT(B3, 1))*60, 1))</f>
+      <c r="H3" s="21" t="str">
+        <f t="shared" ref="H3:H34" ca="1" si="0">_xlfn.CONCAT(QUOTIENT(B3, 1), ":", QUOTIENT((B3-QUOTIENT(B3, 1))*60, 1))</f>
         <v>0:8</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">C3*60</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
-        <f ca="1">D3*60</f>
-        <v>3</v>
-      </c>
-      <c r="L3" s="38" t="s">
+        <f t="shared" ref="I3:I34" ca="1" si="1">C3*60</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <f t="shared" ref="J3:J34" ca="1" si="2">D3*60</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="39">
         <f ca="1">SUM(I3:I52)/M1</f>
         <v>0</v>
       </c>
@@ -1260,7 +1256,7 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <f ca="1">B3+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>0.32174900387676508</v>
       </c>
@@ -1272,23 +1268,23 @@
         <f ca="1">IF(E4 &lt; Données!$D$3, Données!$B$3, IF(E4 &lt; Données!$D$4, Données!$B$4, IF(E4 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E4" s="14">
-        <f t="shared" ref="E4:E52" ca="1" si="0">RAND()</f>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:E52" ca="1" si="3">RAND()</f>
         <v>0.84203672284130215</v>
       </c>
       <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B4, 1), ":", QUOTIENT((B4-QUOTIENT(B4, 1))*60, 1))</f>
+      <c r="H4" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0:18</v>
       </c>
       <c r="I4" s="1">
-        <f>C4*60</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
-        <f ca="1">D4*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -1296,38 +1292,38 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <f ca="1">B4+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>0.46504811262844503</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C52" ca="1" si="1">IF(B5 &gt; B4+C4+D4, 0, B4+C4+D4-B5)</f>
+        <f t="shared" ref="C5:C52" ca="1" si="4">IF(B5 &gt; B4+C4+D4, 0, B4+C4+D4-B5)</f>
         <v>0</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">IF(E5 &lt; Données!$D$3, Données!$B$3, IF(E5 &lt; Données!$D$4, Données!$B$4, IF(E5 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.17917273657313748</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17917273657313748</v>
-      </c>
-      <c r="G5" s="4">
-        <v>3</v>
-      </c>
-      <c r="H5" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B5, 1), ":", QUOTIENT((B5-QUOTIENT(B5, 1))*60, 1))</f>
         <v>0:27</v>
       </c>
       <c r="I5" s="1">
-        <f>C5*60</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <f ca="1">D5*60</f>
-        <v>3</v>
-      </c>
-      <c r="L5" s="39" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L5" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1335,38 +1331,38 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <f ca="1">B5+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>0.62029532995095815</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D6" s="1">
         <f ca="1">IF(E6 &lt; Données!$D$3, Données!$B$3, IF(E6 &lt; Données!$D$4, Données!$B$4, IF(E6 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E6" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E6" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.29131122782064522</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
       </c>
-      <c r="H6" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B6, 1), ":", QUOTIENT((B6-QUOTIENT(B6, 1))*60, 1))</f>
+      <c r="H6" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0:37</v>
       </c>
       <c r="I6" s="1">
-        <f>C6*60</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
-        <f ca="1">D6*60</f>
-        <v>3</v>
-      </c>
-      <c r="L6" s="39" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L6" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1374,35 +1370,35 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <f ca="1">B6+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>0.78106820636524255</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">IF(E7 &lt; Données!$D$3, Données!$B$3, IF(E7 &lt; Données!$D$4, Données!$B$4, IF(E7 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E7" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E7" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.11333960799974618</v>
       </c>
       <c r="G7" s="4">
         <v>5</v>
       </c>
-      <c r="H7" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B7, 1), ":", QUOTIENT((B7-QUOTIENT(B7, 1))*60, 1))</f>
+      <c r="H7" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0:46</v>
       </c>
       <c r="I7" s="1">
-        <f>C7*60</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <f ca="1">D7*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1410,35 +1406,35 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <f ca="1">B7+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>0.94078668804068366</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D8" s="1">
         <f ca="1">IF(E8 &lt; Données!$D$3, Données!$B$3, IF(E8 &lt; Données!$D$4, Données!$B$4, IF(E8 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E8" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E8" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.6654477623052315</v>
       </c>
       <c r="G8" s="4">
         <v>6</v>
       </c>
-      <c r="H8" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B8, 1), ":", QUOTIENT((B8-QUOTIENT(B8, 1))*60, 1))</f>
+      <c r="H8" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>0:56</v>
       </c>
       <c r="I8" s="1">
-        <f>C8*60</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <f ca="1">D8*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1446,35 +1442,35 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="9">
         <f ca="1">B8+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>1.0986314977495044</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D9" s="1">
         <f ca="1">IF(E9 &lt; Données!$D$3, Données!$B$3, IF(E9 &lt; Données!$D$4, Données!$B$4, IF(E9 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E9" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E9" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.72937434850977145</v>
       </c>
       <c r="G9" s="4">
         <v>7</v>
       </c>
-      <c r="H9" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B9, 1), ":", QUOTIENT((B9-QUOTIENT(B9, 1))*60, 1))</f>
+      <c r="H9" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>1:5</v>
       </c>
       <c r="I9" s="1">
-        <f>C9*60</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <f ca="1">D9*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1482,35 +1478,35 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <f ca="1">B9+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>1.2432474447267696</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D10" s="1">
         <f ca="1">IF(E10 &lt; Données!$D$3, Données!$B$3, IF(E10 &lt; Données!$D$4, Données!$B$4, IF(E10 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E10" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E10" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.58032869082368876</v>
       </c>
       <c r="G10" s="4">
         <v>8</v>
       </c>
-      <c r="H10" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B10, 1), ":", QUOTIENT((B10-QUOTIENT(B10, 1))*60, 1))</f>
+      <c r="H10" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>1:14</v>
       </c>
       <c r="I10" s="1">
-        <f>C10*60</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <f ca="1">D10*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1518,35 +1514,35 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="9">
         <f ca="1">B10+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>1.386097456008023</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D11" s="1">
         <f ca="1">IF(E11 &lt; Données!$D$3, Données!$B$3, IF(E11 &lt; Données!$D$4, Données!$B$4, IF(E11 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E11" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E11" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.37185273622689174</v>
       </c>
       <c r="G11" s="4">
         <v>9</v>
       </c>
-      <c r="H11" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B11, 1), ":", QUOTIENT((B11-QUOTIENT(B11, 1))*60, 1))</f>
+      <c r="H11" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>1:23</v>
       </c>
       <c r="I11" s="1">
-        <f>C11*60</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <f ca="1">D11*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1554,35 +1550,35 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="9">
         <f ca="1">B11+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>1.5482694954511029</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D12" s="1">
         <f ca="1">IF(E12 &lt; Données!$D$3, Données!$B$3, IF(E12 &lt; Données!$D$4, Données!$B$4, IF(E12 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E12" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E12" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.60201400301500552</v>
       </c>
       <c r="G12" s="4">
         <v>10</v>
       </c>
-      <c r="H12" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B12, 1), ":", QUOTIENT((B12-QUOTIENT(B12, 1))*60, 1))</f>
+      <c r="H12" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>1:32</v>
       </c>
       <c r="I12" s="1">
-        <f>C12*60</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
-        <f ca="1">D12*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1590,35 +1586,35 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="9">
         <f ca="1">B12+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>1.7012794389852663</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D13" s="1">
         <f ca="1">IF(E13 &lt; Données!$D$3, Données!$B$3, IF(E13 &lt; Données!$D$4, Données!$B$4, IF(E13 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E13" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E13" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.18966111860810375</v>
       </c>
       <c r="G13" s="4">
         <v>11</v>
       </c>
-      <c r="H13" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B13, 1), ":", QUOTIENT((B13-QUOTIENT(B13, 1))*60, 1))</f>
+      <c r="H13" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>1:42</v>
       </c>
       <c r="I13" s="1">
-        <f>C13*60</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <f ca="1">D13*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1626,35 +1622,35 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <f ca="1">B13+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>1.8589495997108016</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D14" s="1">
         <f ca="1">IF(E14 &lt; Données!$D$3, Données!$B$3, IF(E14 &lt; Données!$D$4, Données!$B$4, IF(E14 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E14" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E14" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>1.670674810486894E-2</v>
       </c>
       <c r="G14" s="4">
         <v>12</v>
       </c>
-      <c r="H14" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B14, 1), ":", QUOTIENT((B14-QUOTIENT(B14, 1))*60, 1))</f>
+      <c r="H14" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>1:51</v>
       </c>
       <c r="I14" s="1">
-        <f>C14*60</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <f ca="1">D14*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1662,35 +1658,35 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="9">
         <f ca="1">B14+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>2.0133755790949177</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D15" s="1">
         <f ca="1">IF(E15 &lt; Données!$D$3, Données!$B$3, IF(E15 &lt; Données!$D$4, Données!$B$4, IF(E15 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E15" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E15" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.36683754210991515</v>
       </c>
       <c r="G15" s="4">
         <v>13</v>
       </c>
-      <c r="H15" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B15, 1), ":", QUOTIENT((B15-QUOTIENT(B15, 1))*60, 1))</f>
+      <c r="H15" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>2:0</v>
       </c>
       <c r="I15" s="1">
-        <f>C15*60</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <f ca="1">D15*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1698,35 +1694,35 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="9">
         <f ca="1">B15+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>2.1561202884518589</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D16" s="1">
         <f ca="1">IF(E16 &lt; Données!$D$3, Données!$B$3, IF(E16 &lt; Données!$D$4, Données!$B$4, IF(E16 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E16" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E16" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.33904329236250152</v>
       </c>
       <c r="G16" s="4">
         <v>14</v>
       </c>
-      <c r="H16" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B16, 1), ":", QUOTIENT((B16-QUOTIENT(B16, 1))*60, 1))</f>
+      <c r="H16" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>2:9</v>
       </c>
       <c r="I16" s="1">
-        <f>C16*60</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
-        <f ca="1">D16*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1734,35 +1730,35 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="9">
         <f ca="1">B16+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>2.3097455092927794</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D17" s="1">
         <f ca="1">IF(E17 &lt; Données!$D$3, Données!$B$3, IF(E17 &lt; Données!$D$4, Données!$B$4, IF(E17 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E17" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.99770662960951861</v>
       </c>
       <c r="G17" s="4">
         <v>15</v>
       </c>
-      <c r="H17" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B17, 1), ":", QUOTIENT((B17-QUOTIENT(B17, 1))*60, 1))</f>
+      <c r="H17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>2:18</v>
       </c>
       <c r="I17" s="1">
-        <f>C17*60</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="14">
-        <f ca="1">D17*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -1770,35 +1766,35 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="9">
         <f ca="1">B17+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>2.4698518738743096</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D18" s="1">
         <f ca="1">IF(E18 &lt; Données!$D$3, Données!$B$3, IF(E18 &lt; Données!$D$4, Données!$B$4, IF(E18 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E18" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E18" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.61931747242735191</v>
       </c>
       <c r="G18" s="4">
         <v>16</v>
       </c>
-      <c r="H18" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B18, 1), ":", QUOTIENT((B18-QUOTIENT(B18, 1))*60, 1))</f>
+      <c r="H18" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>2:28</v>
       </c>
       <c r="I18" s="1">
-        <f>C18*60</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="14">
-        <f ca="1">D18*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1806,35 +1802,35 @@
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="9">
         <f ca="1">B18+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>2.6155819785764249</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D19" s="1">
         <f ca="1">IF(E19 &lt; Données!$D$3, Données!$B$3, IF(E19 &lt; Données!$D$4, Données!$B$4, IF(E19 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E19" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E19" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.25764804887142279</v>
       </c>
       <c r="G19" s="4">
         <v>17</v>
       </c>
-      <c r="H19" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B19, 1), ":", QUOTIENT((B19-QUOTIENT(B19, 1))*60, 1))</f>
+      <c r="H19" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>2:36</v>
       </c>
       <c r="I19" s="1">
-        <f>C19*60</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="14">
-        <f ca="1">D19*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1842,35 +1838,35 @@
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="9">
         <f ca="1">B19+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>2.756688624400943</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D20" s="1">
         <f ca="1">IF(E20 &lt; Données!$D$3, Données!$B$3, IF(E20 &lt; Données!$D$4, Données!$B$4, IF(E20 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E20" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E20" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.63612950691918702</v>
       </c>
       <c r="G20" s="4">
         <v>18</v>
       </c>
-      <c r="H20" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B20, 1), ":", QUOTIENT((B20-QUOTIENT(B20, 1))*60, 1))</f>
+      <c r="H20" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>2:45</v>
       </c>
       <c r="I20" s="1">
-        <f>C20*60</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="14">
-        <f ca="1">D20*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1878,35 +1874,35 @@
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="9">
         <f ca="1">B20+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>2.9097502563911779</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">IF(E21 &lt; Données!$D$3, Données!$B$3, IF(E21 &lt; Données!$D$4, Données!$B$4, IF(E21 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E21" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E21" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.2028293248758396</v>
       </c>
       <c r="G21" s="4">
         <v>19</v>
       </c>
-      <c r="H21" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B21, 1), ":", QUOTIENT((B21-QUOTIENT(B21, 1))*60, 1))</f>
+      <c r="H21" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>2:54</v>
       </c>
       <c r="I21" s="1">
-        <f>C21*60</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="14">
-        <f ca="1">D21*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1914,35 +1910,35 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="9">
         <f ca="1">B21+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>3.0634590887749873</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D22" s="1">
         <f ca="1">IF(E22 &lt; Données!$D$3, Données!$B$3, IF(E22 &lt; Données!$D$4, Données!$B$4, IF(E22 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E22" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.22861204622149345</v>
       </c>
       <c r="G22" s="4">
         <v>20</v>
       </c>
-      <c r="H22" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B22, 1), ":", QUOTIENT((B22-QUOTIENT(B22, 1))*60, 1))</f>
+      <c r="H22" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>3:3</v>
       </c>
       <c r="I22" s="1">
-        <f>C22*60</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="14">
-        <f ca="1">D22*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1950,35 +1946,35 @@
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="9">
         <f ca="1">B22+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>3.2068520143299302</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D23" s="1">
         <f ca="1">IF(E23 &lt; Données!$D$3, Données!$B$3, IF(E23 &lt; Données!$D$4, Données!$B$4, IF(E23 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E23" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E23" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>1.1674190016967012E-2</v>
       </c>
       <c r="G23" s="4">
         <v>21</v>
       </c>
-      <c r="H23" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B23, 1), ":", QUOTIENT((B23-QUOTIENT(B23, 1))*60, 1))</f>
+      <c r="H23" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>3:12</v>
       </c>
       <c r="I23" s="1">
-        <f>C23*60</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="14">
-        <f ca="1">D23*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -1986,35 +1982,35 @@
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="9">
         <f ca="1">B23+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>3.3558143245978229</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D24" s="1">
         <f ca="1">IF(E24 &lt; Données!$D$3, Données!$B$3, IF(E24 &lt; Données!$D$4, Données!$B$4, IF(E24 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E24" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E24" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.8279687650412908</v>
       </c>
       <c r="G24" s="4">
         <v>22</v>
       </c>
-      <c r="H24" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B24, 1), ":", QUOTIENT((B24-QUOTIENT(B24, 1))*60, 1))</f>
+      <c r="H24" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>3:21</v>
       </c>
       <c r="I24" s="1">
-        <f>C24*60</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="14">
-        <f ca="1">D24*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -2022,35 +2018,35 @@
       <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="9">
         <f ca="1">B24+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>3.5193795228771623</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D25" s="1">
         <f ca="1">IF(E25 &lt; Données!$D$3, Données!$B$3, IF(E25 &lt; Données!$D$4, Données!$B$4, IF(E25 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E25" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E25" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.52379154102962699</v>
       </c>
       <c r="G25" s="4">
         <v>23</v>
       </c>
-      <c r="H25" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B25, 1), ":", QUOTIENT((B25-QUOTIENT(B25, 1))*60, 1))</f>
+      <c r="H25" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>3:31</v>
       </c>
       <c r="I25" s="1">
-        <f>C25*60</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="14">
-        <f ca="1">D25*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2058,35 +2054,35 @@
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="9">
         <f ca="1">B25+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>3.6794287106150216</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D26" s="1">
         <f ca="1">IF(E26 &lt; Données!$D$3, Données!$B$3, IF(E26 &lt; Données!$D$4, Données!$B$4, IF(E26 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E26" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E26" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.68737115277599903</v>
       </c>
       <c r="G26" s="4">
         <v>24</v>
       </c>
-      <c r="H26" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B26, 1), ":", QUOTIENT((B26-QUOTIENT(B26, 1))*60, 1))</f>
+      <c r="H26" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>3:40</v>
       </c>
       <c r="I26" s="1">
-        <f>C26*60</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="14">
-        <f ca="1">D26*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2094,35 +2090,35 @@
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="9">
         <f ca="1">B26+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>3.8237118307453422</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D27" s="1">
         <f ca="1">IF(E27 &lt; Données!$D$3, Données!$B$3, IF(E27 &lt; Données!$D$4, Données!$B$4, IF(E27 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E27" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E27" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.51154513219224962</v>
       </c>
       <c r="G27" s="4">
         <v>25</v>
       </c>
-      <c r="H27" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B27, 1), ":", QUOTIENT((B27-QUOTIENT(B27, 1))*60, 1))</f>
+      <c r="H27" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>3:49</v>
       </c>
       <c r="I27" s="1">
-        <f>C27*60</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="14">
-        <f ca="1">D27*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2130,35 +2126,35 @@
       <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="9">
         <f ca="1">B27+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>3.9705063223544643</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D28" s="1">
         <f ca="1">IF(E28 &lt; Données!$D$3, Données!$B$3, IF(E28 &lt; Données!$D$4, Données!$B$4, IF(E28 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E28" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E28" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.70678509186668881</v>
       </c>
       <c r="G28" s="4">
         <v>26</v>
       </c>
-      <c r="H28" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B28, 1), ":", QUOTIENT((B28-QUOTIENT(B28, 1))*60, 1))</f>
+      <c r="H28" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>3:58</v>
       </c>
       <c r="I28" s="1">
-        <f>C28*60</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="14">
-        <f ca="1">D28*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2166,35 +2162,35 @@
       <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="9">
         <f ca="1">B28+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>4.1202459393002586</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D29" s="1">
         <f ca="1">IF(E29 &lt; Données!$D$3, Données!$B$3, IF(E29 &lt; Données!$D$4, Données!$B$4, IF(E29 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E29" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E29" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.33523038909644143</v>
       </c>
       <c r="G29" s="4">
         <v>27</v>
       </c>
-      <c r="H29" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B29, 1), ":", QUOTIENT((B29-QUOTIENT(B29, 1))*60, 1))</f>
+      <c r="H29" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>4:7</v>
       </c>
       <c r="I29" s="1">
-        <f>C29*60</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="14">
-        <f ca="1">D29*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2202,35 +2198,35 @@
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="9">
         <f ca="1">B29+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>4.2852585245486168</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D30" s="1">
         <f ca="1">IF(E30 &lt; Données!$D$3, Données!$B$3, IF(E30 &lt; Données!$D$4, Données!$B$4, IF(E30 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E30" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E30" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.46881374047776814</v>
       </c>
       <c r="G30" s="4">
         <v>28</v>
       </c>
-      <c r="H30" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B30, 1), ":", QUOTIENT((B30-QUOTIENT(B30, 1))*60, 1))</f>
+      <c r="H30" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>4:17</v>
       </c>
       <c r="I30" s="1">
-        <f>C30*60</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="14">
-        <f ca="1">D30*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2238,35 +2234,35 @@
       <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="9">
         <f ca="1">B30+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>4.4439746700811247</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">IF(E31 &lt; Données!$D$3, Données!$B$3, IF(E31 &lt; Données!$D$4, Données!$B$4, IF(E31 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E31" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E31" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.68045899040476931</v>
       </c>
       <c r="G31" s="4">
         <v>29</v>
       </c>
-      <c r="H31" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B31, 1), ":", QUOTIENT((B31-QUOTIENT(B31, 1))*60, 1))</f>
+      <c r="H31" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>4:26</v>
       </c>
       <c r="I31" s="1">
-        <f>C31*60</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="14">
-        <f ca="1">D31*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2274,35 +2270,35 @@
       <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="9">
         <f ca="1">B31+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>4.5960537265711938</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D32" s="1">
         <f ca="1">IF(E32 &lt; Données!$D$3, Données!$B$3, IF(E32 &lt; Données!$D$4, Données!$B$4, IF(E32 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E32" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E32" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.43481780621492383</v>
       </c>
       <c r="G32" s="4">
         <v>30</v>
       </c>
-      <c r="H32" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B32, 1), ":", QUOTIENT((B32-QUOTIENT(B32, 1))*60, 1))</f>
+      <c r="H32" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>4:35</v>
       </c>
       <c r="I32" s="1">
-        <f>C32*60</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="14">
-        <f ca="1">D32*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2310,35 +2306,35 @@
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="9">
         <f ca="1">B32+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>4.7605793963633287</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D33" s="1">
         <f ca="1">IF(E33 &lt; Données!$D$3, Données!$B$3, IF(E33 &lt; Données!$D$4, Données!$B$4, IF(E33 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E33" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E33" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.23059425653173615</v>
       </c>
       <c r="G33" s="4">
         <v>31</v>
       </c>
-      <c r="H33" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B33, 1), ":", QUOTIENT((B33-QUOTIENT(B33, 1))*60, 1))</f>
+      <c r="H33" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>4:45</v>
       </c>
       <c r="I33" s="1">
-        <f>C33*60</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="14">
-        <f ca="1">D33*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2346,35 +2342,35 @@
       <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="9">
         <f ca="1">B33+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>4.915192731934293</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D34" s="1">
         <f ca="1">IF(E34 &lt; Données!$D$3, Données!$B$3, IF(E34 &lt; Données!$D$4, Données!$B$4, IF(E34 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E34" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E34" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.76929187762948859</v>
       </c>
       <c r="G34" s="4">
         <v>32</v>
       </c>
-      <c r="H34" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B34, 1), ":", QUOTIENT((B34-QUOTIENT(B34, 1))*60, 1))</f>
+      <c r="H34" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>4:54</v>
       </c>
       <c r="I34" s="1">
-        <f>C34*60</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="14">
-        <f ca="1">D34*60</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2382,35 +2378,35 @@
       <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="9">
         <f ca="1">B34+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>5.0757324233690939</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D35" s="1">
         <f ca="1">IF(E35 &lt; Données!$D$3, Données!$B$3, IF(E35 &lt; Données!$D$4, Données!$B$4, IF(E35 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E35" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E35" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.62628515799437767</v>
       </c>
       <c r="G35" s="4">
         <v>33</v>
       </c>
-      <c r="H35" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B35, 1), ":", QUOTIENT((B35-QUOTIENT(B35, 1))*60, 1))</f>
+      <c r="H35" s="19" t="str">
+        <f t="shared" ref="H35:H52" ca="1" si="5">_xlfn.CONCAT(QUOTIENT(B35, 1), ":", QUOTIENT((B35-QUOTIENT(B35, 1))*60, 1))</f>
         <v>5:4</v>
       </c>
       <c r="I35" s="1">
-        <f>C35*60</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="14">
-        <f ca="1">D35*60</f>
+        <f t="shared" ref="I35:I52" si="6">C35*60</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
+        <f t="shared" ref="J35:J52" ca="1" si="7">D35*60</f>
         <v>4</v>
       </c>
     </row>
@@ -2418,35 +2414,35 @@
       <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="9">
         <f ca="1">B35+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>5.2283896291068661</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D36" s="1">
         <f ca="1">IF(E36 &lt; Données!$D$3, Données!$B$3, IF(E36 &lt; Données!$D$4, Données!$B$4, IF(E36 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E36" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E36" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.33916089794508841</v>
       </c>
       <c r="G36" s="4">
         <v>34</v>
       </c>
-      <c r="H36" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B36, 1), ":", QUOTIENT((B36-QUOTIENT(B36, 1))*60, 1))</f>
+      <c r="H36" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>5:13</v>
       </c>
       <c r="I36" s="1">
-        <f>C36*60</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="14">
-        <f ca="1">D36*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2454,35 +2450,35 @@
       <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="9">
         <f ca="1">B36+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>5.3843856605504428</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D37" s="1">
         <f ca="1">IF(E37 &lt; Données!$D$3, Données!$B$3, IF(E37 &lt; Données!$D$4, Données!$B$4, IF(E37 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E37" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.95444274327006862</v>
       </c>
       <c r="G37" s="4">
         <v>35</v>
       </c>
-      <c r="H37" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B37, 1), ":", QUOTIENT((B37-QUOTIENT(B37, 1))*60, 1))</f>
+      <c r="H37" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>5:23</v>
       </c>
       <c r="I37" s="1">
-        <f>C37*60</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="14">
-        <f ca="1">D37*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -2490,35 +2486,35 @@
       <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="9">
         <f ca="1">B37+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>5.5288728296746248</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D38" s="1">
         <f ca="1">IF(E38 &lt; Données!$D$3, Données!$B$3, IF(E38 &lt; Données!$D$4, Données!$B$4, IF(E38 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E38" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E38" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.10827314761055695</v>
       </c>
       <c r="G38" s="4">
         <v>36</v>
       </c>
-      <c r="H38" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B38, 1), ":", QUOTIENT((B38-QUOTIENT(B38, 1))*60, 1))</f>
+      <c r="H38" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>5:31</v>
       </c>
       <c r="I38" s="1">
-        <f>C38*60</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="14">
-        <f ca="1">D38*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2526,35 +2522,35 @@
       <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="9">
         <f ca="1">B38+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>5.6707970660532379</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D39" s="1">
         <f ca="1">IF(E39 &lt; Données!$D$3, Données!$B$3, IF(E39 &lt; Données!$D$4, Données!$B$4, IF(E39 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E39" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.59806589491626183</v>
       </c>
       <c r="G39" s="4">
         <v>37</v>
       </c>
-      <c r="H39" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B39, 1), ":", QUOTIENT((B39-QUOTIENT(B39, 1))*60, 1))</f>
+      <c r="H39" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>5:40</v>
       </c>
       <c r="I39" s="1">
-        <f>C39*60</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="14">
-        <f ca="1">D39*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2562,35 +2558,35 @@
       <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="9">
         <f ca="1">B39+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>5.834843428775824</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D40" s="1">
         <f ca="1">IF(E40 &lt; Données!$D$3, Données!$B$3, IF(E40 &lt; Données!$D$4, Données!$B$4, IF(E40 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E40" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E40" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.89851741315462985</v>
       </c>
       <c r="G40" s="4">
         <v>38</v>
       </c>
-      <c r="H40" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B40, 1), ":", QUOTIENT((B40-QUOTIENT(B40, 1))*60, 1))</f>
+      <c r="H40" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>5:50</v>
       </c>
       <c r="I40" s="1">
-        <f>C40*60</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="14">
-        <f ca="1">D40*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
     </row>
@@ -2598,35 +2594,35 @@
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="9">
         <f ca="1">B40+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>5.9944346211234389</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D41" s="1">
         <f ca="1">IF(E41 &lt; Données!$D$3, Données!$B$3, IF(E41 &lt; Données!$D$4, Données!$B$4, IF(E41 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E41" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E41" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.54878367270642814</v>
       </c>
       <c r="G41" s="4">
         <v>39</v>
       </c>
-      <c r="H41" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B41, 1), ":", QUOTIENT((B41-QUOTIENT(B41, 1))*60, 1))</f>
+      <c r="H41" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>5:59</v>
       </c>
       <c r="I41" s="1">
-        <f>C41*60</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="14">
-        <f ca="1">D41*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2634,35 +2630,35 @@
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="9">
         <f ca="1">B41+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>6.1601467807848245</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D42" s="1">
         <f ca="1">IF(E42 &lt; Données!$D$3, Données!$B$3, IF(E42 &lt; Données!$D$4, Données!$B$4, IF(E42 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E42" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E42" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.75201815754001022</v>
       </c>
       <c r="G42" s="4">
         <v>40</v>
       </c>
-      <c r="H42" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B42, 1), ":", QUOTIENT((B42-QUOTIENT(B42, 1))*60, 1))</f>
+      <c r="H42" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>6:9</v>
       </c>
       <c r="I42" s="1">
-        <f>C42*60</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="14">
-        <f ca="1">D42*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -2670,35 +2666,35 @@
       <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="9">
         <f ca="1">B42+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>6.3187029852414609</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D43" s="1">
         <f ca="1">IF(E43 &lt; Données!$D$3, Données!$B$3, IF(E43 &lt; Données!$D$4, Données!$B$4, IF(E43 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E43" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E43" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>2.9152506998788019E-2</v>
       </c>
       <c r="G43" s="4">
         <v>41</v>
       </c>
-      <c r="H43" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B43, 1), ":", QUOTIENT((B43-QUOTIENT(B43, 1))*60, 1))</f>
+      <c r="H43" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>6:19</v>
       </c>
       <c r="I43" s="1">
-        <f>C43*60</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="14">
-        <f ca="1">D43*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2706,35 +2702,35 @@
       <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="9">
         <f ca="1">B43+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>6.4732137756538384</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D44" s="1">
         <f ca="1">IF(E44 &lt; Données!$D$3, Données!$B$3, IF(E44 &lt; Données!$D$4, Données!$B$4, IF(E44 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E44" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E44" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.39934366743257832</v>
       </c>
       <c r="G44" s="4">
         <v>42</v>
       </c>
-      <c r="H44" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B44, 1), ":", QUOTIENT((B44-QUOTIENT(B44, 1))*60, 1))</f>
+      <c r="H44" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>6:28</v>
       </c>
       <c r="I44" s="1">
-        <f>C44*60</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="14">
-        <f ca="1">D44*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2742,35 +2738,35 @@
       <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="9">
         <f ca="1">B44+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>6.6144719180362461</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D45" s="1">
         <f ca="1">IF(E45 &lt; Données!$D$3, Données!$B$3, IF(E45 &lt; Données!$D$4, Données!$B$4, IF(E45 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E45" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E45" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.23217756462538119</v>
       </c>
       <c r="G45" s="4">
         <v>43</v>
       </c>
-      <c r="H45" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B45, 1), ":", QUOTIENT((B45-QUOTIENT(B45, 1))*60, 1))</f>
+      <c r="H45" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>6:36</v>
       </c>
       <c r="I45" s="1">
-        <f>C45*60</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="14">
-        <f ca="1">D45*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2778,35 +2774,35 @@
       <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="9">
         <f ca="1">B45+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>6.7580670510747503</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D46" s="1">
         <f ca="1">IF(E46 &lt; Données!$D$3, Données!$B$3, IF(E46 &lt; Données!$D$4, Données!$B$4, IF(E46 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E46" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E46" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.70285076972688298</v>
       </c>
       <c r="G46" s="4">
         <v>44</v>
       </c>
-      <c r="H46" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B46, 1), ":", QUOTIENT((B46-QUOTIENT(B46, 1))*60, 1))</f>
+      <c r="H46" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>6:45</v>
       </c>
       <c r="I46" s="1">
-        <f>C46*60</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="14">
-        <f ca="1">D46*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -2814,35 +2810,35 @@
       <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="9">
         <f ca="1">B46+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>6.900525405933311</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D47" s="1">
         <f ca="1">IF(E47 &lt; Données!$D$3, Données!$B$3, IF(E47 &lt; Données!$D$4, Données!$B$4, IF(E47 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E47" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E47" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>5.6367269881757442E-3</v>
       </c>
       <c r="G47" s="4">
         <v>45</v>
       </c>
-      <c r="H47" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B47, 1), ":", QUOTIENT((B47-QUOTIENT(B47, 1))*60, 1))</f>
+      <c r="H47" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>6:54</v>
       </c>
       <c r="I47" s="1">
-        <f>C47*60</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="14">
-        <f ca="1">D47*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2850,35 +2846,35 @@
       <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="9">
         <f ca="1">B47+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>7.0564183577474475</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D48" s="1">
         <f ca="1">IF(E48 &lt; Données!$D$3, Données!$B$3, IF(E48 &lt; Données!$D$4, Données!$B$4, IF(E48 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.1</v>
       </c>
-      <c r="E48" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E48" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.99634344099480698</v>
       </c>
       <c r="G48" s="4">
         <v>46</v>
       </c>
-      <c r="H48" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B48, 1), ":", QUOTIENT((B48-QUOTIENT(B48, 1))*60, 1))</f>
+      <c r="H48" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>7:3</v>
       </c>
       <c r="I48" s="1">
-        <f>C48*60</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="14">
-        <f ca="1">D48*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -2886,35 +2882,35 @@
       <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="9">
         <f ca="1">B48+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>7.2173367133836832</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D49" s="1">
         <f ca="1">IF(E49 &lt; Données!$D$3, Données!$B$3, IF(E49 &lt; Données!$D$4, Données!$B$4, IF(E49 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E49" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E49" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.37452439266973148</v>
       </c>
       <c r="G49" s="4">
         <v>47</v>
       </c>
-      <c r="H49" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B49, 1), ":", QUOTIENT((B49-QUOTIENT(B49, 1))*60, 1))</f>
+      <c r="H49" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>7:13</v>
       </c>
       <c r="I49" s="1">
-        <f>C49*60</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="14">
-        <f ca="1">D49*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2922,35 +2918,35 @@
       <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="9">
         <f ca="1">B49+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>7.3587686187746852</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D50" s="1">
         <f ca="1">IF(E50 &lt; Données!$D$3, Données!$B$3, IF(E50 &lt; Données!$D$4, Données!$B$4, IF(E50 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E50" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E50" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.67823610779242605</v>
       </c>
       <c r="G50" s="4">
         <v>48</v>
       </c>
-      <c r="H50" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B50, 1), ":", QUOTIENT((B50-QUOTIENT(B50, 1))*60, 1))</f>
+      <c r="H50" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>7:21</v>
       </c>
       <c r="I50" s="1">
-        <f>C50*60</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="14">
-        <f ca="1">D50*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -2958,35 +2954,35 @@
       <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="9">
         <f ca="1">B50+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>7.5059847091765581</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D51" s="1">
         <f ca="1">IF(E51 &lt; Données!$D$3, Données!$B$3, IF(E51 &lt; Données!$D$4, Données!$B$4, IF(E51 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E51" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E51" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>0.33323337332703096</v>
       </c>
       <c r="G51" s="4">
         <v>49</v>
       </c>
-      <c r="H51" s="23" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B51, 1), ":", QUOTIENT((B51-QUOTIENT(B51, 1))*60, 1))</f>
+      <c r="H51" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>7:30</v>
       </c>
       <c r="I51" s="1">
-        <f>C51*60</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="14">
-        <f ca="1">D51*60</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="10">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2994,35 +2990,35 @@
       <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="11">
         <f ca="1">B51+EXPONDIST(RAND(), Données!$B$10, FALSE)</f>
         <v>7.6569935408286263</v>
       </c>
-      <c r="C52" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D52" s="16">
+      <c r="C52" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="12">
         <f ca="1">IF(E52 &lt; Données!$D$3, Données!$B$3, IF(E52 &lt; Données!$D$4, Données!$B$4, IF(E52 &lt; Données!$D$5, Données!$B$5, Données!$B$6)))</f>
         <v>0.05</v>
       </c>
-      <c r="E52" s="17">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E52" s="13">
+        <f t="shared" ca="1" si="3"/>
         <v>0.45449035163692564</v>
       </c>
       <c r="G52" s="5">
         <v>50</v>
       </c>
-      <c r="H52" s="24" t="str">
-        <f ca="1">_xlfn.CONCAT(QUOTIENT(B52, 1), ":", QUOTIENT((B52-QUOTIENT(B52, 1))*60, 1))</f>
+      <c r="H52" s="20" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>7:39</v>
       </c>
-      <c r="I52" s="16">
-        <f>C52*60</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="17">
-        <f ca="1">D52*60</f>
+      <c r="I52" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="13">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -3032,10 +3028,10 @@
     <mergeCell ref="G1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B52">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
